--- a/biology/Botanique/Viola_(genre_végétal)/Viola_(genre_végétal).xlsx
+++ b/biology/Botanique/Viola_(genre_végétal)/Viola_(genre_végétal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Viola_(genre_végétal)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Violette, pensée
 Viola est un genre de plantes herbacées vivaces de la famille des Violaceae. Selon le positionnement des pétales, les espèces sont appelées « Violettes » ou « Pensées ». Les violettes sont parfois appelées « Herbes de la Trinité ». Ces plantes ont un usage principalement ornemental. Des variétés odorantes servent en parfumerie et en confiserie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Viola_(genre_végétal)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Violette » est le diminutif francisé du genre Viola, lui-même un dérivé du grec ion, iou (« violet », les termes latins ayant préposé un v, selon leur usage) qui désignait en latin différentes plantes dont les Violettes, même si ces dernières ne sont pas toutes de cette couleur, certaines étant roses, bleu indigo foncé ou même blanches, et il existe même une variété très rare de couleur rouge sang[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Violette » est le diminutif francisé du genre Viola, lui-même un dérivé du grec ion, iou (« violet », les termes latins ayant préposé un v, selon leur usage) qui désignait en latin différentes plantes dont les Violettes, même si ces dernières ne sont pas toutes de cette couleur, certaines étant roses, bleu indigo foncé ou même blanches, et il existe même une variété très rare de couleur rouge sang.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Viola_(genre_végétal)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,16 +557,53 @@
           <t>Description du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Viola est représenté par des plantes herbacées à fleurs zygomorphes à cinq pétales. Certaines espèces produisent des fleurs cléistogames (V. odorata, V. hirta). Dans ce cas, les fleurs chasmogames correspondant à la première floraison sont souvent fertiles (autopollinisation) et les cléistogames stériles (en raison du phénomène de protandrie) mais tous les cas intermédiaires peuvent se produire, donnant lieu à de nombreux croisements et hybridations[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Viola est représenté par des plantes herbacées à fleurs zygomorphes à cinq pétales. Certaines espèces produisent des fleurs cléistogames (V. odorata, V. hirta). Dans ce cas, les fleurs chasmogames correspondant à la première floraison sont souvent fertiles (autopollinisation) et les cléistogames stériles (en raison du phénomène de protandrie) mais tous les cas intermédiaires peuvent se produire, donnant lieu à de nombreux croisements et hybridations.
 Les graines de certaines espèces sont caractérisées par un élaiosome qui leur permet d'être disséminées par les fourmis (myrmécochorie).
 			Graines de Viola lactea (sombres) et Viola odorata, avec élaïosome.
 			Capsule de fleur cléistogame de Viola odorata.
 			Fleur chasmogame de Viola odorata.
 Voir la liste des espèces européennes et la liste complète des espèces et sous-espèces plus bas, dans cet article.
-Différentes sections
-Le genre Viola est découpé en sections [3]:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description du genre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Différentes sections</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Viola est découpé en sections :
 Section Andinium Becker
 Section Chamaemelanium Ging.
 Section Delphiniopsis Becker
@@ -561,11 +612,45 @@
 Section Melanium Ging.
 Section Viola, (Nomimium Ging.)
 Section Xylinosium Becker
-On nomme l'espèce, Violette ou Pensée, en fonction de la disposition des pétales (la « violette fait la tête », la « pensée sourit », selon la position des deux pétales latéraux tournés respectivement vers le bas et vers le haut)[3],[4] :
+On nomme l'espèce, Violette ou Pensée, en fonction de la disposition des pétales (la « violette fait la tête », la « pensée sourit », selon la position des deux pétales latéraux tournés respectivement vers le bas et vers le haut), :
 les Violettes : deux pétales vers le haut et trois vers le bas, cœur blanc de la corolle. Elles sont représentées en Europe, principalement par la section Viola (anciennement Nomimium) ;
-les Pensées : quatre pétales vers le haut (les deux pétales latéraux étant rapprochés des deux supérieurs) et un vers le bas. Le cœur de la corolle est jaune. Elles sont représentées en Europe, principalement par la section Melanium.
-Variétés cultivées
-Les Pensées ont donné des variétés horticoles à grandes fleurs. Les espèces sont nombreuses, 500 espèces réparties dans le monde, et forment de nombreux hybrides qui rendent la détermination parfois délicate. De nombreuses variétés sont faciles à cultiver.
+les Pensées : quatre pétales vers le haut (les deux pétales latéraux étant rapprochés des deux supérieurs) et un vers le bas. Le cœur de la corolle est jaune. Elles sont représentées en Europe, principalement par la section Melanium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du genre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés cultivées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pensées ont donné des variétés horticoles à grandes fleurs. Les espèces sont nombreuses, 500 espèces réparties dans le monde, et forment de nombreux hybrides qui rendent la détermination parfois délicate. De nombreuses variétés sont faciles à cultiver.
 L'hybride Viola ×wittrockiana est la variété prédominante de pensée cultivée.
 Une sous-espèce de la pensée sauvage, Viola tricolor hortensis, est également présente.
 Des cultivars nommés Viola 'Cornuta' ne doivent pas être confondus avec l'espèce botanique Viola cornuta.
@@ -577,31 +662,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Viola_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Violettes et Pensées ont besoin d'un sol neutre ou calcaire, assez humifère et bien drainé. Elles peuvent atteindre 15 cm de haut. Elles sont présentes sur l'intégralité des continents. Elles peuvent se reproduire de trois manières différentes :
 soit par pollinisation classique de leurs fleurs (fleurs dites chasmogames) ;
@@ -613,79 +700,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Viola_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Rôle écologique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Viola sont les plantes hôtes des chenilles de nombreux papillons et parmi eux de beaucoup d'espèces de la sous-famille des Heliconiinae, dont la Petite violette (Clossiana dia), le Cardinal (Argynnis pandora), le Chiffre (Fabriciana niobe), Speyeria alexandra, le Grand collier argenté, le Petit collier argenté, le Grand nacré, le Moyen nacré, le Petit nacré, le Nacré de la ronce et le Tabac d'Espagne[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Viola_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les violettes parfumées (Viola odorata, Violette de Toulouse, ... ) sont utilisées :
-En confiserie, pour les bonbons à la violette élaborés à partir de fleurs fraîches cristallisées dans le sucre. Ils sont une spécialité de Toulouse et sont réalisées chez Candiflor depuis 1818[6] ainsi que de Liège (Violette de Liège, produite par Gicopa).
-En pâtisserie, pour la confection de sirops.
-En cuisine, les feuilles de violette ont une saveur légèrement végétale et peuvent être ajoutées aux salades de fruits, farces de volailles et pâtés de viandes. Les fleurs servent de décor aux pâtisseries, fraiches ou confites au sucre. les fleurs sèches ou fraîches sont utilisées en infusion, grog ou sirop[7].
-En parfumerie, pour le célèbre parfum de violettes ; c'est une fleur au parfum envoûtant et suave auquel certains ont prêté un pouvoir aphrodisiaque.
-Jadis, dans le domaine de la santé, pour soigner les maux de tête, l'insomnie et la mélancolie. Et utilisé pour guérir l'acné et les infections de la peau. Ses graines ou fleurs entraient dans la composition de remèdes de la pharmacopée maritime occidentale au XVIIIe siècle : catholicum simple ; diaprun solutif[8].</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Viola_(genre_végétal)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -700,17 +721,159 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Rôle écologique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Viola sont les plantes hôtes des chenilles de nombreux papillons et parmi eux de beaucoup d'espèces de la sous-famille des Heliconiinae, dont la Petite violette (Clossiana dia), le Cardinal (Argynnis pandora), le Chiffre (Fabriciana niobe), Speyeria alexandra, le Grand collier argenté, le Petit collier argenté, le Grand nacré, le Moyen nacré, le Petit nacré, le Nacré de la ronce et le Tabac d'Espagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les violettes parfumées (Viola odorata, Violette de Toulouse, ... ) sont utilisées :
+En confiserie, pour les bonbons à la violette élaborés à partir de fleurs fraîches cristallisées dans le sucre. Ils sont une spécialité de Toulouse et sont réalisées chez Candiflor depuis 1818 ainsi que de Liège (Violette de Liège, produite par Gicopa).
+En pâtisserie, pour la confection de sirops.
+En cuisine, les feuilles de violette ont une saveur légèrement végétale et peuvent être ajoutées aux salades de fruits, farces de volailles et pâtés de viandes. Les fleurs servent de décor aux pâtisseries, fraiches ou confites au sucre. les fleurs sèches ou fraîches sont utilisées en infusion, grog ou sirop.
+En parfumerie, pour le célèbre parfum de violettes ; c'est une fleur au parfum envoûtant et suave auquel certains ont prêté un pouvoir aphrodisiaque.
+Jadis, dans le domaine de la santé, pour soigner les maux de tête, l'insomnie et la mélancolie. Et utilisé pour guérir l'acné et les infections de la peau. Ses graines ou fleurs entraient dans la composition de remèdes de la pharmacopée maritime occidentale au XVIIIe siècle : catholicum simple ; diaprun solutif.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Le genre Viola dans la culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ces fleurs, et principalement les violettes, font partie intégrante de la culture occidentale et ont inspiré mythes, légendes, prénom et servent également de symbole.
-Les violettes dans la mythologie grecque
-Dans la mythologie grecque, la nymphe Io fut aimée de Zeus. Mais les amours de celui-ci furent une fois de plus contrariées par son épouse jalouse Héra, qui se vengea en changeant sa rivale en blanche génisse. Ainsi métamorphosée, Io errait tristement lorsqu’elle vit sortir de terre des petites fleurs qui tournèrent leurs corolles vers elle. Elle reconnut en elles les pensées de ses amis venus la consoler. Un autre mythe jouant sur l'étymologie populaire du nom de la fleur raconte que des nymphes ioniennes avaient offert des violettes (appelées ion en grec) à Io qui avait guidé une colonie vers l'Attique[9]. Un autre récit mythique fait de la violette une fleur funéraire de l'Antiquité car Perséphone en cueillait quand elle fut envoyée aux enfers[10].
-Homère décrit la mer tumultueuse comme ἰοειδής / ioeidḗs, « semblable à la fleur ἴον / íon » ou ἰοειδέα πόντον / iodeidéa pónton, « couleur de violette »[11].
-Les violettes chez les Romains
-Les Romains portaient des coiffures agrémentées de violettes, croyant qu'elles pouvaient prévenir les maux de tête liés à l’ébriété. Ils réalisaient avec ces fleurs une sorte de vin censé agir comme un remède homéopathique, et permettre d'apporter l'euphorie de l'ivresse sans avoir à en subir les désagréments[7]. Les violettes étaient également considérées comme des fleurs de deuil, et en faisaient des couronnes de fleurs pour le jour des morts[12].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces fleurs, et principalement les violettes, font partie intégrante de la culture occidentale et ont inspiré mythes, légendes, prénom et servent également de symbole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Le genre Viola dans la culture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les violettes dans la mythologie grecque</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la mythologie grecque, la nymphe Io fut aimée de Zeus. Mais les amours de celui-ci furent une fois de plus contrariées par son épouse jalouse Héra, qui se vengea en changeant sa rivale en blanche génisse. Ainsi métamorphosée, Io errait tristement lorsqu’elle vit sortir de terre des petites fleurs qui tournèrent leurs corolles vers elle. Elle reconnut en elles les pensées de ses amis venus la consoler. Un autre mythe jouant sur l'étymologie populaire du nom de la fleur raconte que des nymphes ioniennes avaient offert des violettes (appelées ion en grec) à Io qui avait guidé une colonie vers l'Attique. Un autre récit mythique fait de la violette une fleur funéraire de l'Antiquité car Perséphone en cueillait quand elle fut envoyée aux enfers.
+Homère décrit la mer tumultueuse comme ἰοειδής / ioeidḗs, « semblable à la fleur ἴον / íon » ou ἰοειδέα πόντον / iodeidéa pónton, « couleur de violette ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Le genre Viola dans la culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les violettes chez les Romains</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Romains portaient des coiffures agrémentées de violettes, croyant qu'elles pouvaient prévenir les maux de tête liés à l’ébriété. Ils réalisaient avec ces fleurs une sorte de vin censé agir comme un remède homéopathique, et permettre d'apporter l'euphorie de l'ivresse sans avoir à en subir les désagréments. Les violettes étaient également considérées comme des fleurs de deuil, et en faisaient des couronnes de fleurs pour le jour des morts.
 Pline l'Ancien (23-79) distingue cinq « espèces » de viola : le purpurea, le lutea, l’alba, le marina et le calathiana, mais « elles semblent se réduire à deux espèces, qui se trouvent décrites dans les auteurs grecs, savoir : le viola purpurea sauvage, et les viola cultivés viola alba et lutea... ».
 Le  viola  purpurea sauvage ou viola martia est l’ion de Dioscoride (~20 - ~40 apr. J.-C.), qu’il nomma aussi ionia, cybelion, dasypodion et priapeion,
 L’ion pophyrion ou ion melan est le melanion (viola nigra) de Théophraste  (~371 av. J.-C.). Les épithètes pophyrion et melan faisant allusion aux couleurs, respectivement rouge et rouge foncé (noir).
@@ -719,54 +882,128 @@
 Seu mollis Violae, seu languentis Hyacinthi.
 Qu’importe la fleur coupée par le doigt d’une vierge
 Qu'elle soit douce Violette, ou Jacinthe étiolée.
-Virgile , Énéide, XI.69[13] »
+Virgile , Énéide, XI.69 »
 « Et nigrae Violae sunt, et Vaccinia nigra
 Brune est la Violette, et brun le Vacciet (Jacinthe).
-Virgile, Bucolique 10, v39 [14],[15]. »
-Calendrier républicain
-Dans le calendrier républicain, la Violette était le nom attribué au 8e jour du mois de ventôse[16].
-Le calendrier républicain inclura également la Pensée qui était le nom attribué au 27e jour du mois de germinal[17], généralement chaque 17 avril du calendrier grégorien.
+Virgile, Bucolique 10, v39 ,. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Le genre Viola dans la culture</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, la Violette était le nom attribué au 8e jour du mois de ventôse.
+Le calendrier républicain inclura également la Pensée qui était le nom attribué au 27e jour du mois de germinal, généralement chaque 17 avril du calendrier grégorien.
 Napoléon Bonaparte a été surnommé Père La Violette par ses soldats lors de son séjour à l'île d'Elbe, parce qu'il devait revenir avec les violettes, c'est-à-dire avec le printemps. Cette fleur fut ensuite le signe de ralliement des bonapartistes durant les Cent-Jours.
 L'image de la violette impériale réapparaît en France sous le Second Empire lorsque les Palmes académiques adoptent cette couleur en 1866. Violettes impériales est également le titre d'une opérette interprétée par Luis Mariano, d'abord sur la scène du théâtre Mogador puis à l'écran dans un film de Richard Pottier en 1952, et dont l'action se situe sous le Second Empire.
 Parallèlement, diverses villes utilisent la violette comme symbole.
 Il existe une Confrérie de la violette à Toulouse. Cette ville est aussi appelée la Cité des violettes, car la production de cette fleur y était très importante. La Violette est l'une des récompenses décernées par l'Académie des Jeux floraux de Toulouse.
 En Italie, la violette est l'emblème de la ville de Parme.
 Au Canada, la violette cucullée est l'emblème floral de la province du Nouveau-Brunswick.
-En France, elle est le symbole historique du PUC (Paris université club)
-Langage des fleurs
-langage des fleurs, la violette représente l'innocence, la modestie et la pudeur, par allusion à la petite corolle qui semble hésiter à sortir de son écrin de feuilles [3]. Elle peut aussi être une incitation à sortir de son humilité et être plus hardi[12]. Bleue, elle témoigne de la fidélité ; blanche, elle évoque le bonheur champêtre[réf. souhaitée]. Toujours dans le langage des fleurs, la violette en bouquet, entouré de feuilles, symbolise l'amour secret[3].
-[12].</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Viola_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+En France, elle est le symbole historique du PUC (Paris université club)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Le genre Viola dans la culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>langage des fleurs, la violette représente l'innocence, la modestie et la pudeur, par allusion à la petite corolle qui semble hésiter à sortir de son écrin de feuilles . Elle peut aussi être une incitation à sortir de son humilité et être plus hardi. Bleue, elle témoigne de la fidélité ; blanche, elle évoque le bonheur champêtre[réf. souhaitée]. Toujours dans le langage des fleurs, la violette en bouquet, entouré de feuilles, symbolise l'amour secret.
+.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèces européennes
-Il y a 91 espèces européennes dont 19 en France, 22 en Suisse et 15 en Belgique[réf. nécessaire].
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Espèces européennes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a 91 espèces européennes dont 19 en France, 22 en Suisse et 15 en Belgique[réf. nécessaire].
 La plupart présente des fleurs de teinte rose à violet, mais pour certaines à dominante blanche ou jaune, auquel cas cette indication est portée ci-dessous; attention toutefois, la couleur est rarement un caractère intangible de l'espèce.
 Viola alba - Violette blanche
 Viola arborescens - Violette ligneuse
@@ -810,7 +1047,43 @@
 Viola tricolor - Pensée sauvage ou violette tricolore
 Viola valderia - Pensée de Valdieri
 Viola willkommii
-Espèces américaines
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Espèces américaines</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Viola adunca - Violette à éperon crochu
 Viola blanda var. blanda - Violette agréable 
 Viola blanda var. palustriform - Violette méconnue 
@@ -835,10 +1108,81 @@
 Viola × maltena - Violette de Malte
 Viola × sublanceolata - Violette sublancéolée
 Viola wikipedia
-Espèces africaines
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Espèces africaines</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Viola abyssinica
-Liste complète
-Selon ITIS :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Viola_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Liste complète</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS :
 Viola lobata var. lobata Benth.
 Viola nephrophylla var. nephrophylla Greene
 Viola palmata var. palmata L.
